--- a/tarea3/ejercicios.xlsx
+++ b/tarea3/ejercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduuag-my.sharepoint.com/personal/eduardoa_rodriguez_edu_uag_mx/Documents/Pruebas y validacion/UAG_Pruebas_Validacion/tarea3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83C9F6C-24D9-4D14-ACD1-51955EB548B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D83C9F6C-24D9-4D14-ACD1-51955EB548B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5348ACCE-05B0-458C-8E4C-611BAD688911}"/>
   <bookViews>
     <workbookView xWindow="13080" yWindow="4050" windowWidth="28650" windowHeight="15435" xr2:uid="{5421F89A-7628-4D76-8F92-7D9B82B2FD60}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
